--- a/hw6/code/hedge.xlsx
+++ b/hw6/code/hedge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6233\hw\hw6\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1F32F7-D6C4-4E27-93D8-180999BB3A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E2B51-3994-4149-A921-4318B2A93B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CC4085B-7663-41B8-AEEE-9E126C32647D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{8CC4085B-7663-41B8-AEEE-9E126C32647D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <definedName name="t">Sheet1!$C$8</definedName>
     <definedName name="t_">_xlfn.ANCHORARRAY(Sheet1!$B$16)</definedName>
     <definedName name="V">_xlfn.ANCHORARRAY(Sheet1!$J$16)</definedName>
+    <definedName name="V_">_xlfn.ANCHORARRAY(Sheet1!$L$16)</definedName>
     <definedName name="value">Sheet1!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>R</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>M0</t>
+  </si>
+  <si>
+    <t>V_</t>
   </si>
 </sst>
 </file>
@@ -634,9 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13621872-3DE0-4CE0-9097-CD8665302C19}">
   <dimension ref="B2:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,8 +710,8 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" cm="1">
-        <f t="array" ref="C10">_xll.BSM.PUT.VALUE(r_, s0, sigma, k, _xlfn.TAKE(t_, -1))</f>
-        <v>3.9717913275519052</v>
+        <f t="array" ref="C10">_xll.BSM.CALL.VALUE(r_, s0, sigma, k, _xlfn.TAKE(t_, -1))</f>
+        <v>3.9717913275518981</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -717,7 +720,7 @@
       </c>
       <c r="C11" s="1" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">_xlfn.TAKE(S,-1)</f>
-        <v>99.9347232152587</v>
+        <v>101.13556659593716</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -728,31 +731,31 @@
         <v>13</v>
       </c>
       <c r="C12" s="6">
-        <f ca="1">MAX(k - S_t, 0)</f>
-        <v>6.5276784741300276E-2</v>
+        <f ca="1">MAX(S_t - k, 0)</f>
+        <v>1.1355665959371635</v>
       </c>
       <c r="D12" s="6" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">EXP(-r_*t)*_xll.MONTE.MEAN(C12)</f>
-        <v>3.991704668257948</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f ca="1">value-G16*E16</f>
-        <v>51.977910743714659</v>
+        <v>3.9717913275518981</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="6" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">_xlfn.TAKE(A,-1)</f>
-        <v>1.620229978930837</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="D13" s="6">
         <f t="array" aca="1" ref="D13:E13" ca="1">_xll.MONTE.STDEV(C13-C12)</f>
-        <v>-2.1560870783789844E-3</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f ca="1"/>
-        <v>0.43897478566157427</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -810,6 +813,9 @@
       <c r="K15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" cm="1">
@@ -830,27 +836,35 @@
       </c>
       <c r="F16" s="6" cm="1">
         <f t="array" aca="1" ref="F16:F78" ca="1">_xlfn.SCAN(0,dM,plus)</f>
-        <v>51.977910743714659</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="G16" s="6" cm="1">
-        <f t="array" aca="1" ref="G16:G78" ca="1">_xlfn.VSTACK(_xlfn.DROP(_xll.BSM.PUT.DELTA(r_, S, sigma, k, t - t_),-1),0)</f>
-        <v>-0.48006119416162751</v>
+        <f t="array" aca="1" ref="G16:G78" ca="1">1*(S&gt;k)</f>
+        <v>0</v>
       </c>
       <c r="H16" s="6" cm="1">
         <f t="array" aca="1" ref="H16:H78" ca="1">_xlfn.VSTACK(M0,_dNS_R,-M0-SUM(_dNS_R))</f>
-        <v>51.977910743714659</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" aca="1" ref="I16:I78" ca="1">N-_xlfn.DROP(_xlfn.VSTACK(0,N),-1)</f>
-        <v>-0.48006119416162751</v>
+        <v>0</v>
       </c>
       <c r="J16" s="6" cm="1">
         <f t="array" aca="1" ref="J16:J78" ca="1">_M*_R+N*S</f>
-        <v>3.9717913275519052</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" aca="1" ref="K16:K78" ca="1">-dM*_R-dN*S</f>
-        <v>-3.9717913275519052</v>
+        <v>-3.9717913275518981</v>
+      </c>
+      <c r="L16" s="6" cm="1">
+        <f t="array" aca="1" ref="L16:L78" ca="1">_xll.BSM.CALL.VALUE(r_, S, sigma, k, t - t_)</f>
+        <v>3.987761167674492</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" aca="1" ref="M16:M78" ca="1">V_ - V</f>
+        <v>1.5969840122593837E-2</v>
       </c>
       <c r="N16" s="6"/>
     </row>
@@ -860,38 +874,46 @@
       </c>
       <c r="C17" s="6">
         <f ca="1"/>
-        <v>-6.6752402661927071E-2</v>
+        <v>-4.5097035121906812E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
         <f ca="1"/>
-        <v>98.665930596321473</v>
+        <v>99.094186729423569</v>
       </c>
       <c r="F17" s="6">
         <f ca="1"/>
-        <v>57.318074753319266</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="G17" s="6">
         <f ca="1"/>
-        <v>-0.53418488181479706</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
         <f ca="1"/>
-        <v>5.3401640096046084</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6">
         <f ca="1"/>
-        <v>-5.412368765316955E-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="6">
         <f ca="1"/>
-        <v>4.6122262785763084</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="K17" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f ca="1"/>
+        <v>3.5014765465053728</v>
+      </c>
+      <c r="M17">
+        <f ca="1"/>
+        <v>-0.47031478104652535</v>
       </c>
       <c r="N17" s="6"/>
     </row>
@@ -901,38 +923,46 @@
       </c>
       <c r="C18" s="6">
         <f ca="1"/>
-        <v>-7.2120528502841258E-2</v>
+        <v>-9.6465096100103287E-2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1">
         <f ca="1"/>
-        <v>98.552172725131243</v>
+        <v>98.073496980018135</v>
       </c>
       <c r="F18" s="6">
         <f ca="1"/>
-        <v>57.836586339988962</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="G18" s="6">
         <f ca="1"/>
-        <v>-0.53944617207691903</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
         <f ca="1"/>
-        <v>0.51851158666969488</v>
+        <v>0</v>
       </c>
       <c r="I18" s="6">
         <f ca="1"/>
-        <v>-5.2612902621219648E-3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6">
         <f ca="1"/>
-        <v>4.6729940135535699</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="K18" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f ca="1"/>
+        <v>2.9980871563093956</v>
+      </c>
+      <c r="M18">
+        <f ca="1"/>
+        <v>-0.97370417124250253</v>
       </c>
       <c r="N18" s="6"/>
     </row>
@@ -942,38 +972,46 @@
       </c>
       <c r="C19" s="6">
         <f ca="1"/>
-        <v>-0.13400640653680526</v>
+        <v>-6.8396167039936839E-2</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
         <f ca="1"/>
-        <v>97.332106072911571</v>
+        <v>98.617719121726736</v>
       </c>
       <c r="F19" s="6">
         <f ca="1"/>
-        <v>62.787965392724054</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="G19" s="6">
         <f ca="1"/>
-        <v>-0.59031714623446996</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
         <f ca="1"/>
-        <v>4.9513790527350903</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6">
         <f ca="1"/>
-        <v>-5.087097415755093E-2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="6">
         <f ca="1"/>
-        <v>5.3311542987721694</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="K19" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f ca="1"/>
+        <v>3.2121444193162887</v>
+      </c>
+      <c r="M19">
+        <f ca="1"/>
+        <v>-0.75964690823560943</v>
       </c>
       <c r="N19" s="6"/>
     </row>
@@ -983,38 +1021,46 @@
       </c>
       <c r="C20" s="6">
         <f ca="1"/>
-        <v>-0.10134231113897835</v>
+        <v>-4.2641323260229846E-2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1">
         <f ca="1"/>
-        <v>97.962203309391128</v>
+        <v>99.119076603883684</v>
       </c>
       <c r="F20" s="6">
         <f ca="1"/>
-        <v>60.337725311780659</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="G20" s="6">
         <f ca="1"/>
-        <v>-0.56530504975063656</v>
+        <v>0</v>
       </c>
       <c r="H20" s="6">
         <f ca="1"/>
-        <v>-2.4502400809433946</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6">
         <f ca="1"/>
-        <v>2.5012096483833401E-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="6">
         <f ca="1"/>
-        <v>4.9591970962833329</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="K20" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <f ca="1"/>
+        <v>3.4167313368078851</v>
+      </c>
+      <c r="M20">
+        <f ca="1"/>
+        <v>-0.55505999074401302</v>
       </c>
       <c r="N20" s="6"/>
     </row>
@@ -1024,38 +1070,46 @@
       </c>
       <c r="C21" s="6">
         <f ca="1"/>
-        <v>-0.12499731816325932</v>
+        <v>7.7254177880065042E-2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="1">
         <f ca="1"/>
-        <v>97.492038899323546</v>
+        <v>101.51646697847552</v>
       </c>
       <c r="F21" s="6">
         <f ca="1"/>
-        <v>62.339440981352944</v>
+        <v>-97.544675650923622</v>
       </c>
       <c r="G21" s="6">
         <f ca="1"/>
-        <v>-0.58583714336742287</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6">
         <f ca="1"/>
-        <v>2.0017156695722842</v>
+        <v>-101.51646697847552</v>
       </c>
       <c r="I21" s="6">
         <f ca="1"/>
-        <v>-2.0532093616786318E-2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
         <f ca="1"/>
-        <v>5.2249834115075657</v>
+        <v>3.9717913275518981</v>
       </c>
       <c r="K21" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f ca="1"/>
+        <v>4.6596037904510723</v>
+      </c>
+      <c r="M21">
+        <f ca="1"/>
+        <v>0.68781246289917419</v>
       </c>
       <c r="N21" s="6"/>
     </row>
@@ -1065,38 +1119,46 @@
       </c>
       <c r="C22" s="6">
         <f ca="1"/>
-        <v>-0.15690744723576003</v>
+        <v>-6.2569307279667682E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1">
         <f ca="1"/>
-        <v>96.86407397522305</v>
+        <v>98.709019429834527</v>
       </c>
       <c r="F22" s="6">
         <f ca="1"/>
-        <v>64.986104130887682</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="G22" s="6">
         <f ca="1"/>
-        <v>-0.61316061884102036</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
         <f ca="1"/>
-        <v>2.646663149534739</v>
+        <v>98.709019429834527</v>
       </c>
       <c r="I22" s="6">
         <f ca="1"/>
-        <v>-2.7323475473597481E-2</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="6">
         <f ca="1"/>
-        <v>5.5928685887775416</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K22" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f ca="1"/>
+        <v>3.1568048112713143</v>
+      </c>
+      <c r="M22">
+        <f ca="1"/>
+        <v>1.9924610323604099</v>
       </c>
       <c r="N22" s="6"/>
     </row>
@@ -1106,38 +1168,46 @@
       </c>
       <c r="C23" s="6">
         <f ca="1"/>
-        <v>-0.21462745011417877</v>
+        <v>-8.7238578238379272E-2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1">
         <f ca="1"/>
-        <v>95.744644651625222</v>
+        <v>98.215345437904872</v>
       </c>
       <c r="F23" s="6">
         <f ca="1"/>
-        <v>69.536794501324778</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="G23" s="6">
         <f ca="1"/>
-        <v>-0.66069006956899745</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
         <f ca="1"/>
-        <v>4.5506903704370965</v>
+        <v>0</v>
       </c>
       <c r="I23" s="6">
         <f ca="1"/>
-        <v>-4.7529450727977096E-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="6">
         <f ca="1"/>
-        <v>6.279258565583568</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K23" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <f ca="1"/>
+        <v>2.8998772384317135</v>
+      </c>
+      <c r="M23">
+        <f ca="1"/>
+        <v>1.7355334595208092</v>
       </c>
       <c r="N23" s="6"/>
     </row>
@@ -1147,38 +1217,46 @@
       </c>
       <c r="C24" s="6">
         <f ca="1"/>
-        <v>-0.14986852942317502</v>
+        <v>-0.10060159809252832</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1">
         <f ca="1"/>
-        <v>96.985014812830656</v>
+        <v>97.945369227314316</v>
       </c>
       <c r="F24" s="6">
         <f ca="1"/>
-        <v>64.688594633124538</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="G24" s="6">
         <f ca="1"/>
-        <v>-0.61070090497942986</v>
+        <v>0</v>
       </c>
       <c r="H24" s="6">
         <f ca="1"/>
-        <v>-4.8481998682002425</v>
+        <v>0</v>
       </c>
       <c r="I24" s="6">
         <f ca="1"/>
-        <v>4.9989164589567592E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="6">
         <f ca="1"/>
-        <v>5.4597583174854449</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K24" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f ca="1"/>
+        <v>2.7490765804987944</v>
+      </c>
+      <c r="M24">
+        <f ca="1"/>
+        <v>1.5847328015878901</v>
       </c>
       <c r="N24" s="6"/>
     </row>
@@ -1188,38 +1266,46 @@
       </c>
       <c r="C25" s="6">
         <f ca="1"/>
-        <v>-0.1785393621783464</v>
+        <v>-0.12326637592914577</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
         <f ca="1"/>
-        <v>96.422763877928787</v>
+        <v>97.494592097831912</v>
       </c>
       <c r="F25" s="6">
         <f ca="1"/>
-        <v>67.116460012104241</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="G25" s="6">
         <f ca="1"/>
-        <v>-0.63588028463352675</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
         <f ca="1"/>
-        <v>2.4278653789797087</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6">
         <f ca="1"/>
-        <v>-2.5179379654096889E-2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="6">
         <f ca="1"/>
-        <v>5.8031254722555445</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K25" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <f ca="1"/>
+        <v>2.5268395197436746</v>
+      </c>
+      <c r="M25">
+        <f ca="1"/>
+        <v>1.3624957408327703</v>
       </c>
       <c r="N25" s="6"/>
     </row>
@@ -1229,38 +1315,46 @@
       </c>
       <c r="C26" s="6">
         <f ca="1"/>
-        <v>-0.13401636069950479</v>
+        <v>-3.4591744477478995E-2</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1">
         <f ca="1"/>
-        <v>97.277421689087248</v>
+        <v>99.231136107290112</v>
       </c>
       <c r="F26" s="6">
         <f ca="1"/>
-        <v>63.701396768815684</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="G26" s="6">
         <f ca="1"/>
-        <v>-0.6007738520822653</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6">
         <f ca="1"/>
-        <v>-3.4150632432885586</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6">
         <f ca="1"/>
-        <v>3.5106432551261446E-2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="6">
         <f ca="1"/>
-        <v>5.2596654200318369</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K26" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f ca="1"/>
+        <v>3.2694982032743951</v>
+      </c>
+      <c r="M26">
+        <f ca="1"/>
+        <v>2.1051544243634908</v>
       </c>
       <c r="N26" s="6"/>
     </row>
@@ -1270,38 +1364,46 @@
       </c>
       <c r="C27" s="6">
         <f ca="1"/>
-        <v>-0.10904149955365536</v>
+        <v>-1.4459171374809395E-2</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1">
         <f ca="1"/>
-        <v>97.756714405556039</v>
+        <v>99.623527015688367</v>
       </c>
       <c r="F27" s="6">
         <f ca="1"/>
-        <v>61.772261066449417</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="G27" s="6">
         <f ca="1"/>
-        <v>-0.58103980400079025</v>
+        <v>0</v>
       </c>
       <c r="H27" s="6">
         <f ca="1"/>
-        <v>-1.9291357023662679</v>
+        <v>0</v>
       </c>
       <c r="I27" s="6">
         <f ca="1"/>
-        <v>1.9734048081475053E-2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="6">
         <f ca="1"/>
-        <v>4.9717188884839061</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K27" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <f ca="1"/>
+        <v>3.4281992644139336</v>
+      </c>
+      <c r="M27">
+        <f ca="1"/>
+        <v>2.2638554855030293</v>
       </c>
       <c r="N27" s="6"/>
     </row>
@@ -1311,40 +1413,47 @@
       </c>
       <c r="C28" s="6">
         <f ca="1"/>
-        <v>-0.20895550065858046</v>
+        <v>3.5331325862464361E-2</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1">
         <f ca="1"/>
-        <v>95.814984376016127</v>
+        <v>100.61249464145203</v>
       </c>
       <c r="F28" s="6">
         <f ca="1"/>
-        <v>69.974090479418976</v>
+        <v>-99.448150862541127</v>
       </c>
       <c r="G28" s="6">
         <f ca="1"/>
-        <v>-0.66664050065990899</v>
+        <v>1</v>
       </c>
       <c r="H28" s="6">
         <f ca="1"/>
-        <v>8.2018294129695573</v>
+        <v>-100.61249464145203</v>
       </c>
       <c r="I28" s="6">
         <f ca="1"/>
-        <v>-8.5600696659118736E-2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="6">
         <f ca="1"/>
-        <v>6.0999413242702261</v>
+        <v>1.1643437789109043</v>
       </c>
       <c r="K28" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6">
+        <f ca="1"/>
+        <v>3.9103518836843563</v>
+      </c>
+      <c r="M28">
+        <f ca="1"/>
+        <v>2.7460081047734519</v>
+      </c>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -1353,38 +1462,46 @@
       </c>
       <c r="C29" s="6">
         <f ca="1"/>
-        <v>-0.11429609994938741</v>
+        <v>1.0818193186198467E-2</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="1">
         <f ca="1"/>
-        <v>97.638410479966453</v>
+        <v>100.11242701556439</v>
       </c>
       <c r="F29" s="6">
         <f ca="1"/>
-        <v>62.358336070679506</v>
+        <v>-99.448150862541127</v>
       </c>
       <c r="G29" s="6">
         <f ca="1"/>
-        <v>-0.58864092681082347</v>
+        <v>1</v>
       </c>
       <c r="H29" s="6">
         <f ca="1"/>
-        <v>-7.615754408739468</v>
+        <v>0</v>
       </c>
       <c r="I29" s="6">
         <f ca="1"/>
-        <v>7.7999573849085513E-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="6">
         <f ca="1"/>
-        <v>4.8843716334164355</v>
+        <v>0.66427615302326615</v>
       </c>
       <c r="K29" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <f ca="1"/>
+        <v>3.6076823893991161</v>
+      </c>
+      <c r="M29">
+        <f ca="1"/>
+        <v>2.94340623637585</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -1393,38 +1510,46 @@
       </c>
       <c r="C30" s="6">
         <f ca="1"/>
-        <v>-0.11694855993971902</v>
+        <v>-3.308029925363587E-2</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="1">
         <f ca="1"/>
-        <v>97.578821202903683</v>
+        <v>99.229378644644171</v>
       </c>
       <c r="F30" s="6">
         <f ca="1"/>
-        <v>62.742705825459751</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G30" s="6">
         <f ca="1"/>
-        <v>-0.5925799962732532</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6">
         <f ca="1"/>
-        <v>0.38436975478024787</v>
+        <v>99.229378644644171</v>
       </c>
       <c r="I30" s="6">
         <f ca="1"/>
-        <v>-3.9390694624297229E-3</v>
+        <v>-1</v>
       </c>
       <c r="J30" s="6">
         <f ca="1"/>
-        <v>4.9194483206946487</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K30" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <f ca="1"/>
+        <v>3.1278111377906583</v>
+      </c>
+      <c r="M30">
+        <f ca="1"/>
+        <v>3.3465833556876134</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -1433,38 +1558,46 @@
       </c>
       <c r="C31" s="6">
         <f ca="1"/>
-        <v>-9.6558580168737349E-2</v>
+        <v>-0.13648725733756967</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="1">
         <f ca="1"/>
-        <v>97.9697218241607</v>
+        <v>97.190477107386272</v>
       </c>
       <c r="F31" s="6">
         <f ca="1"/>
-        <v>61.119351607441992</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G31" s="6">
         <f ca="1"/>
-        <v>-0.57601003784332716</v>
+        <v>0</v>
       </c>
       <c r="H31" s="6">
         <f ca="1"/>
-        <v>-1.6233542180177603</v>
+        <v>0</v>
       </c>
       <c r="I31" s="6">
         <f ca="1"/>
-        <v>1.6569958429926035E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="6">
         <f ca="1"/>
-        <v>4.6878084320069533</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K31" s="6">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <f ca="1"/>
+        <v>2.204599772545464</v>
+      </c>
+      <c r="M31">
+        <f ca="1"/>
+        <v>2.4233719904424191</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -1473,1854 +1606,2222 @@
       </c>
       <c r="C32" s="6">
         <f ca="1"/>
-        <v>-0.14474999237983757</v>
+        <v>-0.15737011365699916</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="1">
         <f ca="1"/>
-        <v>97.022235822075899</v>
+        <v>96.777658135395669</v>
       </c>
       <c r="F32" s="6">
         <f ca="1"/>
-        <v>65.456127474772387</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G32" s="6">
         <f ca="1"/>
-        <v>-0.62070882086543133</v>
+        <v>0</v>
       </c>
       <c r="H32" s="6">
         <f ca="1"/>
-        <v>4.3367758673303936</v>
+        <v>0</v>
       </c>
       <c r="I32" s="6">
         <f ca="1"/>
-        <v>-4.4698783022104172E-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="6">
         <f ca="1"/>
-        <v>5.2335698799238415</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K32" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="6">
+        <f ca="1"/>
+        <v>2.014389824275014</v>
+      </c>
+      <c r="M32">
+        <f ca="1"/>
+        <v>2.2331620421719691</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>6.8000000000000033E-2</v>
       </c>
       <c r="C33" s="6">
         <f ca="1"/>
-        <v>-0.22649927676700821</v>
+        <v>-0.12046920178357509</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="1">
         <f ca="1"/>
-        <v>95.441198051049042</v>
+        <v>97.486737745756955</v>
       </c>
       <c r="F33" s="6">
         <f ca="1"/>
-        <v>72.34993379018529</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G33" s="6">
         <f ca="1"/>
-        <v>-0.69293974897810628</v>
+        <v>0</v>
       </c>
       <c r="H33" s="6">
         <f ca="1"/>
-        <v>6.8938063154128963</v>
+        <v>0</v>
       </c>
       <c r="I33" s="6">
         <f ca="1"/>
-        <v>-7.2230928112674953E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="6">
         <f ca="1"/>
-        <v>6.214933970521642</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K33" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="6">
+        <f ca="1"/>
+        <v>2.2517872817904703</v>
+      </c>
+      <c r="M33">
+        <f ca="1"/>
+        <v>2.4705594996874254</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>7.2000000000000036E-2</v>
       </c>
       <c r="C34" s="6">
         <f ca="1"/>
-        <v>-0.15005148494799875</v>
+        <v>-0.14980973759785565</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="1">
         <f ca="1"/>
-        <v>96.903911941823822</v>
+        <v>96.908597307876491</v>
       </c>
       <c r="F34" s="6">
         <f ca="1"/>
-        <v>66.202459705915814</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G34" s="6">
         <f ca="1"/>
-        <v>-0.62950088504493396</v>
+        <v>0</v>
       </c>
       <c r="H34" s="6">
         <f ca="1"/>
-        <v>-6.1474740842694748</v>
+        <v>0</v>
       </c>
       <c r="I34" s="6">
         <f ca="1"/>
-        <v>6.3438863933172329E-2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="6">
         <f ca="1"/>
-        <v>5.2013613742213707</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K34" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="6">
+        <f ca="1"/>
+        <v>1.9942268898108466</v>
+      </c>
+      <c r="M34">
+        <f ca="1"/>
+        <v>2.2129991077078017</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>7.600000000000004E-2</v>
       </c>
       <c r="C35" s="6">
         <f ca="1"/>
-        <v>-3.7839773276612546E-2</v>
+        <v>-4.2937240942206564E-2</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="1">
         <f ca="1"/>
-        <v>99.095321599120041</v>
+        <v>98.994346040297913</v>
       </c>
       <c r="F35" s="6">
         <f ca="1"/>
-        <v>56.024965607096505</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G35" s="6">
         <f ca="1"/>
-        <v>-0.52679680240426885</v>
+        <v>0</v>
       </c>
       <c r="H35" s="6">
         <f ca="1"/>
-        <v>-10.177494098819311</v>
+        <v>0</v>
       </c>
       <c r="I35" s="6">
         <f ca="1"/>
-        <v>0.10270408264066511</v>
+        <v>0</v>
       </c>
       <c r="J35" s="6">
         <f ca="1"/>
-        <v>3.821867055457389</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K35" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="6">
+        <f ca="1"/>
+        <v>2.8319704976030238</v>
+      </c>
+      <c r="M35">
+        <f ca="1"/>
+        <v>3.0507427154999789</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="C36" s="6">
         <f ca="1"/>
-        <v>-3.9713148123482894E-3</v>
+        <v>-5.2665369145168381E-2</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="1">
         <f ca="1"/>
-        <v>99.760860099894884</v>
+        <v>98.794023512405715</v>
       </c>
       <c r="F36" s="6">
         <f ca="1"/>
-        <v>52.866305064026825</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="G36" s="6">
         <f ca="1"/>
-        <v>-0.49513447972675007</v>
+        <v>0</v>
       </c>
       <c r="H36" s="6">
         <f ca="1"/>
-        <v>-3.1586605430696806</v>
+        <v>0</v>
       </c>
       <c r="I36" s="6">
         <f ca="1"/>
-        <v>3.1662322677518784E-2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="6">
         <f ca="1"/>
-        <v>3.4712635013722704</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K36" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="6">
+        <f ca="1"/>
+        <v>2.7013115726788897</v>
+      </c>
+      <c r="M36">
+        <f ca="1"/>
+        <v>2.9200837905758448</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8.4000000000000047E-2</v>
       </c>
       <c r="C37" s="6">
         <f ca="1"/>
-        <v>-2.08972300049667E-2</v>
+        <v>1.7595742723829841E-2</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="1">
         <f ca="1"/>
-        <v>99.4157687072952</v>
+        <v>100.18408408157377</v>
       </c>
       <c r="F37" s="6">
         <f ca="1"/>
-        <v>54.5858196216629</v>
+        <v>-100.40285629947073</v>
       </c>
       <c r="G37" s="6">
         <f ca="1"/>
-        <v>-0.51243067508886364</v>
+        <v>1</v>
       </c>
       <c r="H37" s="6">
         <f ca="1"/>
-        <v>1.7195145576360751</v>
+        <v>-100.18408408157377</v>
       </c>
       <c r="I37" s="6">
         <f ca="1"/>
-        <v>-1.7296195362113576E-2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="6">
         <f ca="1"/>
-        <v>3.642130148505295</v>
+        <v>-0.21877221789695511</v>
       </c>
       <c r="K37" s="6">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="6">
+        <f ca="1"/>
+        <v>3.3457910595048332</v>
+      </c>
+      <c r="M37">
+        <f ca="1"/>
+        <v>3.5645632774017884</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>8.800000000000005E-2</v>
       </c>
       <c r="C38" s="6">
         <f ca="1"/>
-        <v>-3.9545704900912033E-2</v>
+        <v>-3.130488956290408E-2</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="1">
         <f ca="1"/>
-        <v>99.037745486194424</v>
+        <v>99.201110429655543</v>
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>56.506920733766364</v>
+        <v>-1.2017458698151842</v>
       </c>
       <c r="G38" s="6">
         <f ca="1"/>
-        <v>-0.53182834112692245</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>1.9211011121034662</v>
+        <v>99.201110429655543</v>
       </c>
       <c r="I38" s="6">
         <f ca="1"/>
-        <v>-1.9397666038058814E-2</v>
+        <v>-1</v>
       </c>
       <c r="J38">
         <f ca="1"/>
-        <v>3.8358408428932336</v>
+        <v>-1.2017458698151842</v>
       </c>
       <c r="K38">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="6">
+        <f ca="1"/>
+        <v>2.8141397548204452</v>
+      </c>
+      <c r="M38">
+        <f ca="1"/>
+        <v>4.0158856246356294</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9.2000000000000054E-2</v>
       </c>
       <c r="C39" s="6">
         <f ca="1"/>
-        <v>-3.1213061544441281E-2</v>
+        <v>4.6449933397807945E-2</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="1">
         <f ca="1"/>
-        <v>99.194996417519846</v>
+        <v>100.74778068741048</v>
       </c>
       <c r="F39">
         <f ca="1"/>
-        <v>55.798543239112604</v>
+        <v>-101.94952655722567</v>
       </c>
       <c r="G39" s="6">
         <f ca="1"/>
-        <v>-0.52468707876251708</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>-0.70837749465376065</v>
+        <v>-100.74778068741048</v>
       </c>
       <c r="I39" s="6">
         <f ca="1"/>
-        <v>7.1412623644053763E-3</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <f ca="1"/>
-        <v>3.7522103409457657</v>
+        <v>-1.2017458698151842</v>
       </c>
       <c r="K39">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="6">
+        <f ca="1"/>
+        <v>3.5703956242968644</v>
+      </c>
+      <c r="M39">
+        <f ca="1"/>
+        <v>4.7721414941120486</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>9.6000000000000058E-2</v>
       </c>
       <c r="C40" s="6">
         <f ca="1"/>
-        <v>-0.11376964806756494</v>
+        <v>9.3367257925056485E-3</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="1">
         <f ca="1"/>
-        <v>97.562798356232818</v>
+        <v>99.9947346544743</v>
       </c>
       <c r="F40">
         <f ca="1"/>
-        <v>63.965092016261679</v>
+        <v>-1.9547919027513672</v>
       </c>
       <c r="G40" s="6">
         <f ca="1"/>
-        <v>-0.60839263984462555</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>8.1665487771490781</v>
+        <v>99.9947346544743</v>
       </c>
       <c r="I40" s="6">
         <f ca="1"/>
-        <v>-8.3705561082108471E-2</v>
+        <v>-1</v>
       </c>
       <c r="J40">
         <f ca="1"/>
-        <v>4.6086035736842987</v>
+        <v>-1.9547919027513672</v>
       </c>
       <c r="K40">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="6">
+        <f ca="1"/>
+        <v>3.1276072667387211</v>
+      </c>
+      <c r="M40">
+        <f ca="1"/>
+        <v>5.0823991694900883</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.10000000000000006</v>
       </c>
       <c r="C41" s="6">
         <f ca="1"/>
-        <v>-0.12471500673880925</v>
+        <v>1.6368552978983684E-2</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="1">
         <f ca="1"/>
-        <v>97.341672338442507</v>
+        <v>100.12745221096458</v>
       </c>
       <c r="F41">
         <f ca="1"/>
-        <v>65.229142008010967</v>
+        <v>-102.08224411371594</v>
       </c>
       <c r="G41" s="6">
         <f ca="1"/>
-        <v>-0.62137834228206035</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>1.2640499917492924</v>
+        <v>-100.12745221096458</v>
       </c>
       <c r="I41" s="6">
         <f ca="1"/>
-        <v>-1.2985702437434798E-2</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <f ca="1"/>
-        <v>4.7431350153860734</v>
+        <v>-1.9547919027513672</v>
       </c>
       <c r="K41">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="6">
+        <f ca="1"/>
+        <v>3.1555338366169252</v>
+      </c>
+      <c r="M41">
+        <f ca="1"/>
+        <v>5.1103257393682924</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.10400000000000006</v>
       </c>
       <c r="C42" s="6">
         <f ca="1"/>
-        <v>-0.17973544660769619</v>
+        <v>3.5940251031142456E-2</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="1">
         <f ca="1"/>
-        <v>96.268686200402499</v>
+        <v>100.51211185364373</v>
       </c>
       <c r="F42">
         <f ca="1"/>
-        <v>70.58622484142505</v>
+        <v>-102.08224411371594</v>
       </c>
       <c r="G42" s="6">
         <f ca="1"/>
-        <v>-0.67702554226838041</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>5.3570828334140881</v>
+        <v>0</v>
       </c>
       <c r="I42" s="6">
         <f ca="1"/>
-        <v>-5.5647199986320062E-2</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f ca="1"/>
-        <v>5.4098653631329938</v>
+        <v>-1.5701322600722136</v>
       </c>
       <c r="K42">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="6">
+        <f ca="1"/>
+        <v>3.3186518485278924</v>
+      </c>
+      <c r="M42">
+        <f ca="1"/>
+        <v>4.888784108600106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.10800000000000007</v>
       </c>
       <c r="C43" s="6">
         <f ca="1"/>
-        <v>-0.2118987671296802</v>
+        <v>6.9794386748658899E-2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="1">
         <f ca="1"/>
-        <v>95.643757766745878</v>
+        <v>101.186875867303</v>
       </c>
       <c r="F43">
         <f ca="1"/>
-        <v>73.737195811820968</v>
+        <v>-102.08224411371594</v>
       </c>
       <c r="G43">
         <f ca="1"/>
-        <v>-0.70997041022390805</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>3.1509709703959148</v>
+        <v>0</v>
       </c>
       <c r="I43" s="6">
         <f ca="1"/>
-        <v>-3.2944867955527646E-2</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f ca="1"/>
-        <v>5.8329578748083009</v>
+        <v>-0.89536824641294288</v>
       </c>
       <c r="K43">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="6">
+        <f ca="1"/>
+        <v>3.6541864382225953</v>
+      </c>
+      <c r="M43">
+        <f ca="1"/>
+        <v>4.5495546846355381</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.11200000000000007</v>
       </c>
       <c r="C44" s="6">
         <f ca="1"/>
-        <v>-0.27880798385068317</v>
+        <v>7.3642061244814414E-2</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="1">
         <f ca="1"/>
-        <v>94.364844064594593</v>
+        <v>101.25667181016146</v>
       </c>
       <c r="F44">
         <f ca="1"/>
-        <v>79.535747369145241</v>
+        <v>-102.08224411371594</v>
       </c>
       <c r="G44">
         <f ca="1"/>
-        <v>-0.77141862872946776</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>5.7985515573242772</v>
+        <v>0</v>
       </c>
       <c r="I44" s="6">
         <f ca="1"/>
-        <v>-6.1448218505559704E-2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f ca="1"/>
-        <v>6.7409487605656295</v>
+        <v>-0.82557230355448041</v>
       </c>
       <c r="K44">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="6">
+        <f ca="1"/>
+        <v>3.6522901862579715</v>
+      </c>
+      <c r="M44">
+        <f ca="1"/>
+        <v>4.4778624898124519</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.11600000000000008</v>
       </c>
       <c r="C45" s="6">
         <f ca="1"/>
-        <v>-0.15226177629492604</v>
+        <v>6.391177991436868E-2</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="1">
         <f ca="1"/>
-        <v>96.775883972570753</v>
+        <v>101.05172777993177</v>
       </c>
       <c r="F45">
         <f ca="1"/>
-        <v>68.702286639485237</v>
+        <v>-102.08224411371594</v>
       </c>
       <c r="G45">
         <f ca="1"/>
-        <v>-0.65947482325897955</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>-10.833460729659999</v>
+        <v>0</v>
       </c>
       <c r="I45" s="6">
         <f ca="1"/>
-        <v>0.11194380547048821</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f ca="1"/>
-        <v>4.8810276609426282</v>
+        <v>-1.0305163337841776</v>
       </c>
       <c r="K45">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="6">
+        <f ca="1"/>
+        <v>3.4912133438321007</v>
+      </c>
+      <c r="M45">
+        <f ca="1"/>
+        <v>4.5217296776162783</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.12000000000000008</v>
       </c>
       <c r="C46" s="6">
         <f ca="1"/>
-        <v>-0.18547304131989811</v>
+        <v>-2.1432422741771734E-2</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="1">
         <f ca="1"/>
-        <v>96.12751369184069</v>
+        <v>99.333582024820572</v>
       </c>
       <c r="F46">
         <f ca="1"/>
-        <v>72.169831042247949</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G46">
         <f ca="1"/>
-        <v>-0.69554716373247538</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>3.46754440276271</v>
+        <v>99.333582024820572</v>
       </c>
       <c r="I46" s="6">
         <f ca="1"/>
-        <v>-3.6072340473495834E-2</v>
+        <v>-1</v>
       </c>
       <c r="J46">
         <f ca="1"/>
-        <v>5.3086115372334604</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K46">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="6">
+        <f ca="1"/>
+        <v>2.5457069781874679</v>
+      </c>
+      <c r="M46">
+        <f ca="1"/>
+        <v>5.2943690670828403</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.12400000000000008</v>
       </c>
       <c r="C47" s="6">
         <f ca="1"/>
-        <v>-0.13837701481772197</v>
+        <v>-5.7478197865208129E-2</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="1">
         <f ca="1"/>
-        <v>97.029473515419852</v>
+        <v>98.61215663126552</v>
       </c>
       <c r="F47">
         <f ca="1"/>
-        <v>67.892237220018231</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G47">
         <f ca="1"/>
-        <v>-0.6514616537606015</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f ca="1"/>
-        <v>-4.277593822229715</v>
+        <v>0</v>
       </c>
       <c r="I47" s="6">
         <f ca="1"/>
-        <v>4.4085509971873882E-2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <f ca="1"/>
-        <v>4.6812559401423286</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K47">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="6">
+        <f ca="1"/>
+        <v>2.1723315030386203</v>
+      </c>
+      <c r="M47">
+        <f ca="1"/>
+        <v>4.9209935919339927</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.12800000000000009</v>
       </c>
       <c r="C48" s="6">
         <f ca="1"/>
-        <v>-0.14264139594380301</v>
+        <v>-7.192242037169301E-2</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="1">
         <f ca="1"/>
-        <v>96.938999233646626</v>
+        <v>98.319826628168158</v>
       </c>
       <c r="F48">
         <f ca="1"/>
-        <v>68.635919787659688</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G48">
         <f ca="1"/>
-        <v>-0.65913330885835009</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f ca="1"/>
-        <v>0.74368256764145146</v>
+        <v>0</v>
       </c>
       <c r="I48" s="6">
         <f ca="1"/>
-        <v>-7.6716550977485864E-3</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <f ca="1"/>
-        <v>4.7401964653691238</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K48">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="6">
+        <f ca="1"/>
+        <v>2.0036770131227115</v>
+      </c>
+      <c r="M48">
+        <f ca="1"/>
+        <v>4.7523391020180838</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.13200000000000009</v>
       </c>
       <c r="C49" s="6">
         <f ca="1"/>
-        <v>-0.19245106102310522</v>
+        <v>-0.12919403166546883</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="1">
         <f ca="1"/>
-        <v>95.970415661743189</v>
+        <v>97.192289253790108</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>73.875834662261042</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>-0.71373258133696404</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>5.2399148746013573</v>
+        <v>0</v>
       </c>
       <c r="I49" s="6">
         <f ca="1"/>
-        <v>-5.4599272478613958E-2</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>5.3786221600236672</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K49">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="6">
+        <f ca="1"/>
+        <v>1.5267103969699463</v>
+      </c>
+      <c r="M49">
+        <f ca="1"/>
+        <v>4.2753724858653186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.13600000000000009</v>
       </c>
       <c r="C50" s="6">
         <f ca="1"/>
-        <v>-0.26772517977128185</v>
+        <v>-6.1665642865169928E-2</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="1">
         <f ca="1"/>
-        <v>94.528856722954757</v>
+        <v>98.505960340171896</v>
       </c>
       <c r="F50">
         <f ca="1"/>
-        <v>80.894836412055326</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G50">
         <f ca="1"/>
-        <v>-0.78798505823262333</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>7.0190017497942847</v>
+        <v>0</v>
       </c>
       <c r="I50" s="6">
         <f ca="1"/>
-        <v>-7.4252476895659281E-2</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f ca="1"/>
-        <v>6.4075097425545096</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K50">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="6">
+        <f ca="1"/>
+        <v>1.9924377440441532</v>
+      </c>
+      <c r="M50">
+        <f ca="1"/>
+        <v>4.7410998329395255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.1400000000000001</v>
       </c>
       <c r="C51" s="6">
         <f ca="1"/>
-        <v>-0.31465123503505482</v>
+        <v>-3.80477582153326E-2</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="1">
         <f ca="1"/>
-        <v>93.638342245671993</v>
+        <v>98.9644440233495</v>
       </c>
       <c r="F51">
         <f ca="1"/>
-        <v>84.913949537888726</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G51">
         <f ca="1"/>
-        <v>-0.83090671862777166</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>4.0191131258334041</v>
+        <v>0</v>
       </c>
       <c r="I51" s="6">
         <f ca="1"/>
-        <v>-4.2921660395148331E-2</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <f ca="1"/>
-        <v>7.1092218447931685</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K51">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="6">
+        <f ca="1"/>
+        <v>2.1466530618059494</v>
+      </c>
+      <c r="M51">
+        <f ca="1"/>
+        <v>4.8953151507013217</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.1440000000000001</v>
       </c>
       <c r="C52" s="6">
         <f ca="1"/>
-        <v>-0.26600895108904848</v>
+        <v>-0.12682748616068124</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="1">
         <f ca="1"/>
-        <v>94.546180320109613</v>
+        <v>97.214967744862221</v>
       </c>
       <c r="F52">
         <f ca="1"/>
-        <v>81.648274630704293</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G52">
         <f ca="1"/>
-        <v>-0.79636619148931209</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>-3.2656749071844375</v>
+        <v>0</v>
       </c>
       <c r="I52" s="6">
         <f ca="1"/>
-        <v>3.4540527138459565E-2</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <f ca="1"/>
-        <v>6.354893089316846</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K52">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="6">
+        <f ca="1"/>
+        <v>1.4057208829975991</v>
+      </c>
+      <c r="M52">
+        <f ca="1"/>
+        <v>4.1543829718929715</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.1480000000000001</v>
       </c>
       <c r="C53" s="6">
         <f ca="1"/>
-        <v>-0.23622313863164862</v>
+        <v>-6.6426785499807489E-2</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="1">
         <f ca="1"/>
-        <v>95.103479650018215</v>
+        <v>98.388588704990568</v>
       </c>
       <c r="F53">
         <f ca="1"/>
-        <v>79.577221097575773</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G53">
         <f ca="1"/>
-        <v>-0.77458934861510786</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>-2.0710535331285258</v>
+        <v>0</v>
       </c>
       <c r="I53" s="6">
         <f ca="1"/>
-        <v>2.1776842874204227E-2</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <f ca="1"/>
-        <v>5.9110787444380009</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K53">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="6">
+        <f ca="1"/>
+        <v>1.8028422139690576</v>
+      </c>
+      <c r="M53">
+        <f ca="1"/>
+        <v>4.55150430286443</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.15200000000000011</v>
       </c>
       <c r="C54" s="6">
         <f ca="1"/>
-        <v>-0.22950406108417898</v>
+        <v>1.2163318000632153E-2</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="1">
         <f ca="1"/>
-        <v>95.22374888566128</v>
+        <v>99.939284799154663</v>
       </c>
       <c r="F54">
         <f ca="1"/>
-        <v>79.472070992516208</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="G54">
         <f ca="1"/>
-        <v>-0.77348510617254429</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>-0.10515010505956306</v>
+        <v>0</v>
       </c>
       <c r="I54" s="6">
         <f ca="1"/>
-        <v>1.1042424425635744E-3</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <f ca="1"/>
-        <v>5.8179194755427943</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K54">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="6">
+        <f ca="1"/>
+        <v>2.4663675335799837</v>
+      </c>
+      <c r="M54">
+        <f ca="1"/>
+        <v>5.2150296224753561</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.15600000000000011</v>
       </c>
       <c r="C55" s="6">
         <f ca="1"/>
-        <v>-0.22043210774955851</v>
+        <v>0.12421972862784128</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="1">
         <f ca="1"/>
-        <v>95.389047371637417</v>
+        <v>102.19616286511757</v>
       </c>
       <c r="F55">
         <f ca="1"/>
-        <v>79.149638422199288</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G55">
         <f ca="1"/>
-        <v>-0.77010492176771717</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>-0.32243257031692463</v>
+        <v>-102.19616286511757</v>
       </c>
       <c r="I55" s="6">
         <f ca="1"/>
-        <v>3.3801844048271246E-3</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <f ca="1"/>
-        <v>5.6900635585673882</v>
+        <v>-2.7486620888953723</v>
       </c>
       <c r="K55">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="6">
+        <f ca="1"/>
+        <v>3.7243461343932154</v>
+      </c>
+      <c r="M55">
+        <f ca="1"/>
+        <v>6.4730082232885877</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.16000000000000011</v>
       </c>
       <c r="C56" s="6">
         <f ca="1"/>
-        <v>-0.23440639663367771</v>
+        <v>0.26840517103550432</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" s="1">
         <f ca="1"/>
-        <v>95.115211235550163</v>
+        <v>105.17769153826862</v>
       </c>
       <c r="F56">
         <f ca="1"/>
-        <v>80.994417154495409</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G56">
         <f ca="1"/>
-        <v>-0.78950012373733247</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>1.8447787322961184</v>
+        <v>0</v>
       </c>
       <c r="I56" s="6">
         <f ca="1"/>
-        <v>-1.9395201969615306E-2</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <f ca="1"/>
-        <v>5.9009461147260396</v>
+        <v>0.23286658425567452</v>
       </c>
       <c r="K56">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="6">
+        <f ca="1"/>
+        <v>5.8647872115359974</v>
+      </c>
+      <c r="M56">
+        <f ca="1"/>
+        <v>5.6319206272803228</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.16400000000000012</v>
       </c>
       <c r="C57" s="6">
         <f ca="1"/>
-        <v>-0.16116565049790438</v>
+        <v>0.41308546647596817</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="1">
         <f ca="1"/>
-        <v>96.511006215558524</v>
+        <v>108.25691873846847</v>
       </c>
       <c r="F57">
         <f ca="1"/>
-        <v>74.069664550166777</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G57">
         <f ca="1"/>
-        <v>-0.71774921287373517</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>-6.9247526043286252</v>
+        <v>0</v>
       </c>
       <c r="I57" s="6">
         <f ca="1"/>
-        <v>7.1750910863597306E-2</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <f ca="1"/>
-        <v>4.7989658052974846</v>
+        <v>3.3120937844555272</v>
       </c>
       <c r="K57">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="6">
+        <f ca="1"/>
+        <v>8.5049735089876322</v>
+      </c>
+      <c r="M57">
+        <f ca="1"/>
+        <v>5.192879724532105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.16800000000000012</v>
       </c>
       <c r="C58" s="6">
         <f ca="1"/>
-        <v>-0.14240219189483189</v>
+        <v>0.38866355271664194</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" s="1">
         <f ca="1"/>
-        <v>96.866113088911732</v>
+        <v>107.72082175463609</v>
       </c>
       <c r="F58">
         <f ca="1"/>
-        <v>72.448704179412118</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G58">
         <f ca="1"/>
-        <v>-0.70101518361350446</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>-1.6209603707546658</v>
+        <v>0</v>
       </c>
       <c r="I58" s="6">
         <f ca="1"/>
-        <v>1.6734029260230709E-2</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <f ca="1"/>
-        <v>4.5440881264621709</v>
+        <v>2.7759968006231475</v>
       </c>
       <c r="K58">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="6">
+        <f ca="1"/>
+        <v>7.9921723416520933</v>
+      </c>
+      <c r="M58">
+        <f ca="1"/>
+        <v>5.2161755410289459</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.17200000000000013</v>
       </c>
       <c r="C59" s="6">
         <f ca="1"/>
-        <v>-2.1590906819913158E-2</v>
+        <v>0.4007381583826321</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="1">
         <f ca="1"/>
-        <v>99.227183564908486</v>
+        <v>107.97263524575322</v>
       </c>
       <c r="F59">
         <f ca="1"/>
-        <v>56.886196853114711</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G59">
         <f ca="1"/>
-        <v>-0.5441780471838753</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>-15.562507326297409</v>
+        <v>0</v>
       </c>
       <c r="I59" s="6">
         <f ca="1"/>
-        <v>0.15683713642962915</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <f ca="1"/>
-        <v>2.8889418732068819</v>
+        <v>3.0278102917402805</v>
       </c>
       <c r="K59">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="6">
+        <f ca="1"/>
+        <v>8.1982334321173056</v>
+      </c>
+      <c r="M59">
+        <f ca="1"/>
+        <v>5.1704231403770251</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.17600000000000013</v>
       </c>
       <c r="C60" s="6">
         <f ca="1"/>
-        <v>1.9926739286269854E-2</v>
+        <v>0.42722289693126791</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="1">
         <f ca="1"/>
-        <v>100.0465456148365</v>
+        <v>108.53739471732817</v>
       </c>
       <c r="F60">
         <f ca="1"/>
-        <v>51.03950973785026</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G60">
         <f ca="1"/>
-        <v>-0.48573837713496348</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>-5.8466871152644506</v>
+        <v>0</v>
       </c>
       <c r="I60" s="6">
         <f ca="1"/>
-        <v>5.8439670048911818E-2</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <f ca="1"/>
-        <v>2.4430630329404792</v>
+        <v>3.5925697633152254</v>
       </c>
       <c r="K60">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="6">
+        <f ca="1"/>
+        <v>8.7012785476600385</v>
+      </c>
+      <c r="M60">
+        <f ca="1"/>
+        <v>5.1087087843448131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.18000000000000013</v>
       </c>
       <c r="C61" s="6">
         <f ca="1"/>
-        <v>-4.3249806393569623E-3</v>
+        <v>0.45755595722318365</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" s="1">
         <f ca="1"/>
-        <v>99.554495714804986</v>
+        <v>109.18911484467118</v>
       </c>
       <c r="F61">
         <f ca="1"/>
-        <v>54.758530652822046</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G61">
         <f ca="1"/>
-        <v>-0.52309501169243955</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>3.7190209149717868</v>
+        <v>0</v>
       </c>
       <c r="I61" s="6">
         <f ca="1"/>
-        <v>-3.7356634557476065E-2</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f ca="1"/>
-        <v>2.6820705528512079</v>
+        <v>4.2442898906582371</v>
       </c>
       <c r="K61">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="6">
+        <f ca="1"/>
+        <v>9.3001210496797881</v>
+      </c>
+      <c r="M61">
+        <f ca="1"/>
+        <v>5.055831159021551</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.18400000000000014</v>
       </c>
       <c r="C62" s="6">
         <f ca="1"/>
-        <v>7.2637718826945696E-2</v>
+        <v>0.3341033130977053</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="1">
         <f ca="1"/>
-        <v>101.09065916834091</v>
+        <v>106.51766592331833</v>
       </c>
       <c r="F62">
         <f ca="1"/>
-        <v>42.961947369703701</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G62">
         <f ca="1"/>
-        <v>-0.40640190295057133</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>-11.796583283118343</v>
+        <v>0</v>
       </c>
       <c r="I62" s="6">
         <f ca="1"/>
-        <v>0.11669310874186822</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <f ca="1"/>
-        <v>1.8785111131623395</v>
+        <v>1.5728409693053891</v>
       </c>
       <c r="K62">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="6">
+        <f ca="1"/>
+        <v>6.7979140027019156</v>
+      </c>
+      <c r="M62">
+        <f ca="1"/>
+        <v>5.2250730333965265</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.18800000000000014</v>
       </c>
       <c r="C63" s="6">
         <f ca="1"/>
-        <v>4.6589467081548236E-2</v>
+        <v>0.39862713939028865</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="1">
         <f ca="1"/>
-        <v>100.55733671597797</v>
+        <v>107.89252727763967</v>
       </c>
       <c r="F63">
         <f ca="1"/>
-        <v>46.914769712211275</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G63">
         <f ca="1"/>
-        <v>-0.4457110421103746</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>3.9528223425075733</v>
+        <v>0</v>
       </c>
       <c r="I63" s="6">
         <f ca="1"/>
-        <v>-3.9309139159803275E-2</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <f ca="1"/>
-        <v>2.095254372688899</v>
+        <v>2.9477023236267286</v>
       </c>
       <c r="K63">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="6">
+        <f ca="1"/>
+        <v>8.0355201146945205</v>
+      </c>
+      <c r="M63">
+        <f ca="1"/>
+        <v>5.087817791067792</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.19200000000000014</v>
       </c>
       <c r="C64" s="6">
         <f ca="1"/>
-        <v>0.12180369179357009</v>
+        <v>0.3380610739611537</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="1">
         <f ca="1"/>
-        <v>102.07327363453345</v>
+        <v>106.58495863385411</v>
       </c>
       <c r="F64">
         <f ca="1"/>
-        <v>34.727247004616274</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G64">
         <f ca="1"/>
-        <v>-0.32631129843965023</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>-12.187522707595003</v>
+        <v>0</v>
       </c>
       <c r="I64" s="6">
         <f ca="1"/>
-        <v>0.11939974367072437</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <f ca="1"/>
-        <v>1.4195845489459487</v>
+        <v>1.6401336798411705</v>
       </c>
       <c r="K64">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="6">
+        <f ca="1"/>
+        <v>6.8000029248031666</v>
+      </c>
+      <c r="M64">
+        <f ca="1"/>
+        <v>5.1598692449619961</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.19600000000000015</v>
       </c>
       <c r="C65" s="6">
         <f ca="1"/>
-        <v>0.16309299768368823</v>
+        <v>0.38286597043137593</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="1">
         <f ca="1"/>
-        <v>102.91143721783828</v>
+        <v>107.53575318868404</v>
       </c>
       <c r="F65">
         <f ca="1"/>
-        <v>27.990318744415976</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G65">
         <f ca="1"/>
-        <v>-0.26084794040744363</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>-6.7369282602002984</v>
+        <v>0</v>
       </c>
       <c r="I65" s="6">
         <f ca="1"/>
-        <v>6.5463358032206598E-2</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <f ca="1"/>
-        <v>1.1460823017729176</v>
+        <v>2.5909282346710967</v>
       </c>
       <c r="K65">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="6">
+        <f ca="1"/>
+        <v>7.6578187029578828</v>
+      </c>
+      <c r="M65">
+        <f ca="1"/>
+        <v>5.0668904682867861</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.20000000000000015</v>
       </c>
       <c r="C66" s="6">
         <f ca="1"/>
-        <v>0.14739786589116635</v>
+        <v>0.40708811936811656</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="1">
         <f ca="1"/>
-        <v>102.58069520806544</v>
+        <v>108.04932219462393</v>
       </c>
       <c r="F66">
         <f ca="1"/>
-        <v>29.636067246640181</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G66">
         <f ca="1"/>
-        <v>-0.27689139282201458</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <f ca="1"/>
-        <v>1.6457485022242038</v>
+        <v>0</v>
       </c>
       <c r="I66" s="6">
         <f ca="1"/>
-        <v>-1.6043452414570947E-2</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <f ca="1"/>
-        <v>1.232355673828387</v>
+        <v>3.1044972406109821</v>
       </c>
       <c r="K66">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="6">
+        <f ca="1"/>
+        <v>8.1280834181156081</v>
+      </c>
+      <c r="M66">
+        <f ca="1"/>
+        <v>5.023586177504626</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.20400000000000015</v>
       </c>
       <c r="C67" s="6">
         <f ca="1"/>
-        <v>0.1203346340116969</v>
+        <v>0.33192223274444793</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" s="1">
         <f ca="1"/>
-        <v>102.01880028201641</v>
+        <v>106.42863137051508</v>
       </c>
       <c r="F67">
         <f ca="1"/>
-        <v>33.318715246823224</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G67">
         <f ca="1"/>
-        <v>-0.31298913157215563</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <f ca="1"/>
-        <v>3.6826480001830446</v>
+        <v>0</v>
       </c>
       <c r="I67" s="6">
         <f ca="1"/>
-        <v>-3.6097738750141051E-2</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <f ca="1"/>
-        <v>1.3879395425217211</v>
+        <v>1.4838064165021336</v>
       </c>
       <c r="K67">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="6">
+        <f ca="1"/>
+        <v>6.5730090267319952</v>
+      </c>
+      <c r="M67">
+        <f ca="1"/>
+        <v>5.0892026102298615</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.20800000000000016</v>
       </c>
       <c r="C68" s="6">
         <f ca="1"/>
-        <v>5.8646868630550845E-2</v>
+        <v>0.37741974900396325</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" s="1">
         <f ca="1"/>
-        <v>100.75980938541416</v>
+        <v>107.39290686313672</v>
       </c>
       <c r="F68">
         <f ca="1"/>
-        <v>43.972192603764753</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G68">
         <f ca="1"/>
-        <v>-0.41872054791685259</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <f ca="1"/>
-        <v>10.653477356941529</v>
+        <v>0</v>
       </c>
       <c r="I68" s="6">
         <f ca="1"/>
-        <v>-0.10573141634469696</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <f ca="1"/>
-        <v>1.781990009906508</v>
+        <v>2.448081909123772</v>
       </c>
       <c r="K68">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="6">
+        <f ca="1"/>
+        <v>7.4632933528307461</v>
+      </c>
+      <c r="M68">
+        <f ca="1"/>
+        <v>5.0152114437069741</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.21200000000000016</v>
       </c>
       <c r="C69" s="6">
         <f ca="1"/>
-        <v>4.19525438458698E-2</v>
+        <v>0.33667680483597345</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="1">
         <f ca="1"/>
-        <v>100.41591340596815</v>
+        <v>106.51284060634616</v>
       </c>
       <c r="F69">
         <f ca="1"/>
-        <v>47.101599803415326</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G69">
         <f ca="1"/>
-        <v>-0.44988500276773663</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <f ca="1"/>
-        <v>3.1294071996505757</v>
+        <v>0</v>
       </c>
       <c r="I69" s="6">
         <f ca="1"/>
-        <v>-3.1164454850884038E-2</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <f ca="1"/>
-        <v>1.9259863228465406</v>
+        <v>1.5680156523332158</v>
       </c>
       <c r="K69">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="6">
+        <f ca="1"/>
+        <v>6.6023719330998603</v>
+      </c>
+      <c r="M69">
+        <f ca="1"/>
+        <v>5.0343562807666444</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.21600000000000016</v>
       </c>
       <c r="C70" s="6">
         <f ca="1"/>
-        <v>-8.132101082919882E-3</v>
+        <v>0.30975017976567215</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" s="1">
         <f ca="1"/>
-        <v>99.407122474799635</v>
+        <v>105.93230117764027</v>
       </c>
       <c r="F70">
         <f ca="1"/>
-        <v>57.727549816768182</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G70">
         <f ca="1"/>
-        <v>-0.5567782489337405</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <f ca="1"/>
-        <v>10.625950013352854</v>
+        <v>0</v>
       </c>
       <c r="I70" s="6">
         <f ca="1"/>
-        <v>-0.10689324616600387</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <f ca="1"/>
-        <v>2.3798262337073623</v>
+        <v>0.98747622362732557</v>
       </c>
       <c r="K70">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="6">
+        <f ca="1"/>
+        <v>6.0285610482989682</v>
+      </c>
+      <c r="M70">
+        <f ca="1"/>
+        <v>5.0410848246716427</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.22000000000000017</v>
       </c>
       <c r="C71" s="6">
         <f ca="1"/>
-        <v>9.0023206605540432E-3</v>
+        <v>0.27399938918097694</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="1">
         <f ca="1"/>
-        <v>99.740383999961196</v>
+        <v>105.16915604488266</v>
       </c>
       <c r="F71">
         <f ca="1"/>
-        <v>54.359972185330626</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G71">
         <f ca="1"/>
-        <v>-0.52301481734880828</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <f ca="1"/>
-        <v>-3.3675776314375585</v>
+        <v>0</v>
       </c>
       <c r="I71" s="6">
         <f ca="1"/>
-        <v>3.3763431584932224E-2</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <f ca="1"/>
-        <v>2.1942734652909195</v>
+        <v>0.22433109086971115</v>
       </c>
       <c r="K71">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="6">
+        <f ca="1"/>
+        <v>5.284433565493913</v>
+      </c>
+      <c r="M71">
+        <f ca="1"/>
+        <v>5.0601024746242018</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.22400000000000017</v>
       </c>
       <c r="C72" s="6">
         <f ca="1"/>
-        <v>4.106346501354817E-2</v>
+        <v>0.24519660324915254</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" s="1">
         <f ca="1"/>
-        <v>100.37396681772641</v>
+        <v>104.55669985846458</v>
       </c>
       <c r="F72">
         <f ca="1"/>
-        <v>46.784606245060139</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G72">
         <f ca="1"/>
-        <v>-0.44754339601874432</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <f ca="1"/>
-        <v>-7.5753659402704896</v>
+        <v>0</v>
       </c>
       <c r="I72" s="6">
         <f ca="1"/>
-        <v>7.5471421330063959E-2</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <f ca="1"/>
-        <v>1.8629002635821053</v>
+        <v>-0.38812509554836083</v>
       </c>
       <c r="K72">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="6">
+        <f ca="1"/>
+        <v>4.6825532393075093</v>
+      </c>
+      <c r="M72">
+        <f ca="1"/>
+        <v>5.0706783348558702</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.22800000000000017</v>
       </c>
       <c r="C73" s="6">
         <f ca="1"/>
-        <v>7.1605819970128562E-2</v>
+        <v>0.2454363934306982</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" s="1">
         <f ca="1"/>
-        <v>100.98089595420976</v>
+        <v>104.55334971015704</v>
       </c>
       <c r="F73">
         <f ca="1"/>
-        <v>38.496541792166653</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G73">
         <f ca="1"/>
-        <v>-0.36546782742157374</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <f ca="1"/>
-        <v>-8.2880644528934884</v>
+        <v>0</v>
       </c>
       <c r="I73" s="6">
         <f ca="1"/>
-        <v>8.2075568597170578E-2</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <f ca="1"/>
-        <v>1.5912731366976303</v>
+        <v>-0.39147524385590771</v>
       </c>
       <c r="K73">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="6">
+        <f ca="1"/>
+        <v>4.6420325861128617</v>
+      </c>
+      <c r="M73">
+        <f ca="1"/>
+        <v>5.0335078299687694</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.23200000000000018</v>
       </c>
       <c r="C74" s="6">
         <f ca="1"/>
-        <v>8.5120268365603796E-2</v>
+        <v>0.17321426581953758</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" s="1">
         <f ca="1"/>
-        <v>101.24610535945631</v>
+        <v>103.04574740133955</v>
       </c>
       <c r="F74">
         <f ca="1"/>
-        <v>33.631264561188395</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G74">
         <f ca="1"/>
-        <v>-0.31741385819772105</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <f ca="1"/>
-        <v>-4.8652772309782604</v>
+        <v>0</v>
       </c>
       <c r="I74" s="6">
         <f ca="1"/>
-        <v>4.8053969223852688E-2</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <f ca="1"/>
-        <v>1.4943476315504043</v>
+        <v>-1.8990775526733898</v>
       </c>
       <c r="K74">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="6">
+        <f ca="1"/>
+        <v>3.2260387004925235</v>
+      </c>
+      <c r="M74">
+        <f ca="1"/>
+        <v>5.1251162531659133</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.23600000000000018</v>
       </c>
       <c r="C75" s="6">
         <f ca="1"/>
-        <v>2.6691683329519447E-2</v>
+        <v>0.12004789089399587</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" s="1">
         <f ca="1"/>
-        <v>100.06185278754288</v>
+        <v>101.94768241192097</v>
       </c>
       <c r="F75">
         <f ca="1"/>
-        <v>50.386148529786013</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G75">
         <f ca="1"/>
-        <v>-0.48485912831652</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <f ca="1"/>
-        <v>16.754883968597614</v>
+        <v>0</v>
       </c>
       <c r="I75" s="6">
         <f ca="1"/>
-        <v>-0.16744527011879895</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <f ca="1"/>
-        <v>1.8702458094820287</v>
+        <v>-2.9971425420919786</v>
       </c>
       <c r="K75">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="6">
+        <f ca="1"/>
+        <v>2.2273082647803051</v>
+      </c>
+      <c r="M75">
+        <f ca="1"/>
+        <v>5.2244508068722837</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.24000000000000019</v>
       </c>
       <c r="C76" s="6">
         <f ca="1"/>
-        <v>-4.3503887797841298E-2</v>
+        <v>0.10742951790698325</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" s="1">
         <f ca="1"/>
-        <v>98.658994918497939</v>
+        <v>101.68258907910759</v>
       </c>
       <c r="F76">
         <f ca="1"/>
-        <v>76.247439298416722</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G76">
         <f ca="1"/>
-        <v>-0.7469871865842399</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <f ca="1"/>
-        <v>25.86129076863071</v>
+        <v>0</v>
       </c>
       <c r="I76" s="6">
         <f ca="1"/>
-        <v>-0.2621280582677199</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <f ca="1"/>
-        <v>2.5504342530191195</v>
+        <v>-3.2622358749053575</v>
       </c>
       <c r="K76">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="6">
+        <f ca="1"/>
+        <v>1.9106983276880811</v>
+      </c>
+      <c r="M76">
+        <f ca="1"/>
+        <v>5.1729342025934386</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0.24400000000000019</v>
       </c>
       <c r="C77" s="6">
         <f ca="1"/>
-        <v>1.5571501374743571E-2</v>
+        <v>6.7704397593271404E-2</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" s="1">
         <f ca="1"/>
-        <v>99.823585820562741</v>
+        <v>100.86984934471548</v>
       </c>
       <c r="F77">
         <f ca="1"/>
-        <v>55.81481553247869</v>
+        <v>-104.94482495401294</v>
       </c>
       <c r="G77">
         <f ca="1"/>
-        <v>-0.54229985144215664</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <f ca="1"/>
-        <v>-20.432623765938036</v>
+        <v>0</v>
       </c>
       <c r="I77" s="6">
         <f ca="1"/>
-        <v>0.20468733514208326</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <f ca="1"/>
-        <v>1.6804997715641434</v>
+        <v>-4.0749756092974678</v>
       </c>
       <c r="K77">
         <f ca="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="6">
+        <f ca="1"/>
+        <v>1.1501945188773846</v>
+      </c>
+      <c r="M77">
+        <f ca="1"/>
+        <v>5.2251701281748524</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0.24800000000000019</v>
       </c>
       <c r="C78" s="6">
         <f ca="1"/>
-        <v>2.1535095034471166E-2</v>
+        <v>8.1258371868593693E-2</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" s="1">
         <f ca="1"/>
-        <v>99.9347232152587</v>
+        <v>101.13556659593716</v>
       </c>
       <c r="F78">
         <f ca="1"/>
@@ -3328,31 +3829,39 @@
       </c>
       <c r="G78">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <f ca="1"/>
-        <v>-55.814815532478676</v>
+        <v>104.94482495401294</v>
       </c>
       <c r="I78" s="6">
         <f ca="1"/>
-        <v>0.54229985144215664</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <f ca="1"/>
-        <v>0</v>
+        <v>101.13556659593716</v>
       </c>
       <c r="K78">
         <f ca="1"/>
-        <v>1.620229978930837</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+        <v>-104.94482495401294</v>
+      </c>
+      <c r="L78" s="6">
+        <f ca="1"/>
+        <v>1.1798984942868884</v>
+      </c>
+      <c r="M78">
+        <f ca="1"/>
+        <v>-99.955668101650275</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
       <c r="E79" s="1"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
       <c r="E80" s="1"/>
       <c r="I80" s="6"/>
